--- a/Python Working Notebooks/Production Tank Model results in Excel format/22MT Excel Results/Agitation/Overall 22MT Agitation Results.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/22MT Excel Results/Agitation/Overall 22MT Agitation Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\22MT Excel Results\Agitation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D08D413-885D-4C84-8F54-3C8069ABD9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8433654-B347-4834-BD3F-7A2797688074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>Model</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Poor Performing Machine Models and Results  for Production Tanks  22MT : Agitation Phases</t>
+  </si>
+  <si>
+    <t>neurons_layer3': 32, neurons_layer2': 64, neurons_layer1': 256, 'epochs': 50, batch_size': 16</t>
   </si>
 </sst>
 </file>
@@ -444,6 +447,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,39 +490,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,18 +1272,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1320,7 +1323,7 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1354,7 +1357,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1399,7 @@
       <c r="T4" s="20"/>
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1441,7 @@
       <c r="T5" s="20"/>
     </row>
     <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1482,7 +1485,7 @@
       <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1834,18 +1837,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1885,7 +1888,7 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1929,7 +1932,7 @@
       <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2054,62 +2057,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="28" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="16">
@@ -2136,7 +2139,7 @@
       <c r="J3" s="17">
         <v>0.99654668876785857</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="32" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="20"/>
@@ -2189,18 +2192,18 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -2373,10 +2376,9 @@
   <cols>
     <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="6" customWidth="1"/>
     <col min="9" max="9" width="8.140625" style="6" customWidth="1"/>
@@ -2386,90 +2388,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="28" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="33">
         <v>8.9071200000000003E-2</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="34">
         <v>0.18709899999999999</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="33">
         <v>0.38415500000000002</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="34">
         <v>0.55423599999999995</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="33">
         <v>0.71768299999999996</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="34">
         <v>0.406976</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="33">
         <v>-2.13727</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="34">
         <v>-3.5262600000000002</v>
       </c>
-      <c r="K3" s="42" t="s">
-        <v>43</v>
+      <c r="K3" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="L3" s="7"/>
     </row>
